--- a/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/208844.xlsx
+++ b/statistiche/bpic2012RandomForestCounterfactualsWithMax_1/208844.xlsx
@@ -458,182 +458,182 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>W_Beoordelen fraude-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>O_SELECTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-START</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACTIVATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>A_APPROVED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-COMPLETE</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>W_Beoordelen fraude-COMPLETE</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>A_PARTLYSUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-START</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-START</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>A_SUBMITTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>A_REGISTERED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT_BACK-COMPLETE</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>W_Completeren aanvraag-START</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-START</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>O_CREATED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>O_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
           <t>W_Wijzigen contractgegevens-SCHEDULE</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>A_SUBMITTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>A_ACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>W_Nabellen offertes-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>A_PREACCEPTED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>A_FINALIZED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>O_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>A_DECLINED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>A_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>W_Valideren aanvraag-SCHEDULE</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>O_CANCELLED-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>W_Afhandelen leads-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>W_Nabellen offertes-SCHEDULE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-START</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>A_FINALIZED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>O_SENT-COMPLETE</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>W_Valideren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>O_SELECTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-START</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>A_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-COMPLETE</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>A_APPROVED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen incomplete dossiers-COMPLETE</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-COMPLETE</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>O_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>W_Beoordelen fraude-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-COMPLETE</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>A_PREACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>O_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>W_Nabellen offertes-START</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACTIVATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>A_ACCEPTED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>O_CREATED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>A_REGISTERED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>A_CANCELLED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>W_Afhandelen leads-START</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>W_Valideren aanvraag-SCHEDULE</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>O_DECLINED-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT_BACK-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>W_Completeren aanvraag-START</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>O_SENT-COMPLETE</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>A_PARTLYSUBMITTED-COMPLETE</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2" t="n">
         <v>0</v>
@@ -792,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -831,7 +831,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG3" t="n">
         <v>0</v>
@@ -925,7 +925,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E4" s="2" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R4" s="2" t="n">
         <v>0</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="AL4" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM4" s="2" t="inlineStr">
         <is>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG5" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
@@ -1185,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" s="2" t="n">
         <v>0</v>
@@ -1206,7 +1206,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2" t="n">
         <v>0</v>
@@ -1224,7 +1224,7 @@
         <v>0</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R6" s="2" t="n">
         <v>0</v>
@@ -1239,7 +1239,7 @@
         <v>0</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W6" s="2" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="2" t="n">
         <v>0</v>
@@ -1287,7 +1287,7 @@
         <v>0</v>
       </c>
       <c r="AL6" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM6" s="2" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1366,7 +1366,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1384,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AB7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -1393,10 +1393,10 @@
         <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG7" t="n">
         <v>0</v>
@@ -1414,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AL7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="2" t="n">
         <v>0</v>
@@ -1478,13 +1478,13 @@
         <v>0</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P8" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R8" s="2" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W8" s="2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC8" s="2" t="n">
         <v>0</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="AL8" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM8" s="2" t="inlineStr">
         <is>
@@ -1572,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
@@ -1605,13 +1605,13 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -1626,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -1653,10 +1653,10 @@
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -1674,7 +1674,7 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
@@ -1705,7 +1705,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="2" t="n">
         <v>0</v>
@@ -1738,13 +1738,13 @@
         <v>0</v>
       </c>
       <c r="O10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>0</v>
@@ -1756,10 +1756,10 @@
         <v>0</v>
       </c>
       <c r="U10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W10" s="2" t="n">
         <v>0</v>
@@ -1777,7 +1777,7 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC10" s="2" t="n">
         <v>0</v>
@@ -1801,13 +1801,13 @@
         <v>0</v>
       </c>
       <c r="AJ10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK10" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL10" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM10" s="2" t="inlineStr">
         <is>
@@ -1832,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1865,13 +1865,13 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -1883,10 +1883,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1904,7 +1904,7 @@
         <v>0</v>
       </c>
       <c r="AB11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -1913,10 +1913,10 @@
         <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG11" t="n">
         <v>0</v>
@@ -1928,13 +1928,13 @@
         <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
         <v>0</v>
       </c>
       <c r="AL11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
@@ -1965,7 +1965,7 @@
         <v>0</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12" s="2" t="n">
         <v>0</v>
@@ -1998,13 +1998,13 @@
         <v>0</v>
       </c>
       <c r="O12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>0</v>
@@ -2016,10 +2016,10 @@
         <v>0</v>
       </c>
       <c r="U12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12" s="2" t="n">
         <v>0</v>
@@ -2037,7 +2037,7 @@
         <v>0</v>
       </c>
       <c r="AB12" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC12" s="2" t="n">
         <v>0</v>
@@ -2061,13 +2061,13 @@
         <v>0</v>
       </c>
       <c r="AJ12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK12" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL12" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM12" s="2" t="inlineStr">
         <is>
@@ -2092,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -2125,13 +2125,13 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -2164,7 +2164,7 @@
         <v>0</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -2173,10 +2173,10 @@
         <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG13" t="n">
         <v>0</v>
@@ -2188,13 +2188,13 @@
         <v>0</v>
       </c>
       <c r="AJ13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK13" t="n">
         <v>0</v>
       </c>
       <c r="AL13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM13" t="inlineStr">
         <is>
@@ -2243,7 +2243,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>1</v>
@@ -2258,13 +2258,13 @@
         <v>0</v>
       </c>
       <c r="O14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>0</v>
@@ -2276,10 +2276,10 @@
         <v>0</v>
       </c>
       <c r="U14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W14" s="2" t="n">
         <v>0</v>
@@ -2297,7 +2297,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC14" s="2" t="n">
         <v>0</v>
@@ -2321,13 +2321,13 @@
         <v>0</v>
       </c>
       <c r="AJ14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK14" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL14" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM14" s="2" t="inlineStr">
         <is>
@@ -2370,7 +2370,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>1</v>
@@ -2385,13 +2385,13 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -2403,10 +2403,10 @@
         <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -2424,7 +2424,7 @@
         <v>0</v>
       </c>
       <c r="AB15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -2436,25 +2436,25 @@
         <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG15" t="n">
         <v>0</v>
       </c>
       <c r="AH15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK15" t="n">
         <v>0</v>
       </c>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM15" t="inlineStr">
         <is>
@@ -2494,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="2" t="n">
         <v>0</v>
@@ -2503,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>1</v>
@@ -2518,13 +2518,13 @@
         <v>0</v>
       </c>
       <c r="O16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>0</v>
@@ -2536,10 +2536,10 @@
         <v>0</v>
       </c>
       <c r="U16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W16" s="2" t="n">
         <v>0</v>
@@ -2557,10 +2557,10 @@
         <v>0</v>
       </c>
       <c r="AB16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC16" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD16" s="2" t="n">
         <v>0</v>
@@ -2581,13 +2581,13 @@
         <v>0</v>
       </c>
       <c r="AJ16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK16" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL16" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM16" s="2" t="inlineStr">
         <is>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -2630,7 +2630,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>1</v>
@@ -2645,13 +2645,13 @@
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -2663,10 +2663,10 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -2684,13 +2684,13 @@
         <v>0</v>
       </c>
       <c r="AB17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE17" t="n">
         <v>0</v>
@@ -2702,19 +2702,19 @@
         <v>0</v>
       </c>
       <c r="AH17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AL17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM17" t="inlineStr">
         <is>
@@ -2754,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H18" s="2" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>1</v>
@@ -2778,13 +2778,13 @@
         <v>0</v>
       </c>
       <c r="O18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>0</v>
@@ -2796,13 +2796,13 @@
         <v>0</v>
       </c>
       <c r="U18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X18" s="2" t="n">
         <v>0</v>
@@ -2814,13 +2814,13 @@
         <v>1</v>
       </c>
       <c r="AA18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC18" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD18" s="2" t="n">
         <v>0</v>
@@ -2841,13 +2841,13 @@
         <v>0</v>
       </c>
       <c r="AJ18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK18" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AL18" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM18" s="2" t="inlineStr">
         <is>
@@ -2881,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2890,7 +2890,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>1</v>
@@ -2905,13 +2905,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -2920,40 +2920,40 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z19" t="n">
         <v>1</v>
       </c>
       <c r="AA19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF19" t="n">
         <v>0</v>
@@ -2968,13 +2968,13 @@
         <v>0</v>
       </c>
       <c r="AJ19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK19" t="n">
         <v>0</v>
       </c>
       <c r="AL19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM19" t="inlineStr">
         <is>
@@ -3014,7 +3014,7 @@
         <v>0</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="2" t="n">
         <v>0</v>
@@ -3023,7 +3023,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>1</v>
@@ -3038,13 +3038,13 @@
         <v>0</v>
       </c>
       <c r="O20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>0</v>
@@ -3056,13 +3056,13 @@
         <v>0</v>
       </c>
       <c r="U20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X20" s="2" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>1</v>
       </c>
       <c r="AA20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC20" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20" s="2" t="n">
         <v>0</v>
@@ -3101,13 +3101,13 @@
         <v>0</v>
       </c>
       <c r="AJ20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK20" s="2" t="n">
         <v>1</v>
       </c>
       <c r="AL20" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM20" s="2" t="inlineStr">
         <is>
@@ -3135,22 +3135,22 @@
         <v>1</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" t="n">
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>1</v>
@@ -3165,13 +3165,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -3183,13 +3183,13 @@
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -3201,13 +3201,13 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD21" t="n">
         <v>0</v>
@@ -3228,13 +3228,13 @@
         <v>0</v>
       </c>
       <c r="AJ21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AK21" t="n">
         <v>1</v>
       </c>
       <c r="AL21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM21" t="inlineStr">
         <is>
@@ -3268,13 +3268,13 @@
         <v>1</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="2" t="n">
         <v>0</v>
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="J22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>1</v>
@@ -3298,13 +3298,13 @@
         <v>0</v>
       </c>
       <c r="O22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P22" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>0</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="U22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X22" s="2" t="n">
         <v>0</v>
@@ -3334,13 +3334,13 @@
         <v>1</v>
       </c>
       <c r="AA22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC22" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD22" s="2" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>1</v>
       </c>
       <c r="AL22" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM22" s="2" t="inlineStr">
         <is>
@@ -3395,13 +3395,13 @@
         <v>1</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -3410,13 +3410,13 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -3425,13 +3425,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -3443,13 +3443,13 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -3461,19 +3461,19 @@
         <v>1</v>
       </c>
       <c r="AA23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF23" t="n">
         <v>0</v>
@@ -3494,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM23" t="inlineStr">
         <is>
@@ -3528,22 +3528,22 @@
         <v>1</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>1</v>
@@ -3558,13 +3558,13 @@
         <v>0</v>
       </c>
       <c r="O24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>0</v>
@@ -3576,13 +3576,13 @@
         <v>0</v>
       </c>
       <c r="U24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X24" s="2" t="n">
         <v>0</v>
@@ -3594,16 +3594,16 @@
         <v>1</v>
       </c>
       <c r="AA24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC24" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="2" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>1</v>
       </c>
       <c r="AL24" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM24" s="2" t="inlineStr">
         <is>
@@ -3655,22 +3655,22 @@
         <v>1</v>
       </c>
       <c r="E25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>1</v>
@@ -3682,16 +3682,16 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -3703,13 +3703,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -3721,19 +3721,19 @@
         <v>1</v>
       </c>
       <c r="AA25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF25" t="n">
         <v>0</v>
@@ -3754,7 +3754,7 @@
         <v>1</v>
       </c>
       <c r="AL25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM25" t="inlineStr">
         <is>
@@ -3788,22 +3788,22 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>1</v>
@@ -3815,16 +3815,16 @@
         <v>0</v>
       </c>
       <c r="N26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P26" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2" t="n">
         <v>0</v>
@@ -3836,16 +3836,16 @@
         <v>0</v>
       </c>
       <c r="U26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y26" s="2" t="n">
         <v>0</v>
@@ -3854,16 +3854,16 @@
         <v>1</v>
       </c>
       <c r="AA26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC26" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="2" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>1</v>
       </c>
       <c r="AL26" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM26" s="2" t="inlineStr">
         <is>
@@ -3915,43 +3915,43 @@
         <v>1</v>
       </c>
       <c r="E27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>1</v>
       </c>
       <c r="L27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -3963,16 +3963,16 @@
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -3981,16 +3981,16 @@
         <v>1</v>
       </c>
       <c r="AA27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE27" t="n">
         <v>1</v>
@@ -4014,7 +4014,7 @@
         <v>1</v>
       </c>
       <c r="AL27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM27" t="inlineStr">
         <is>
@@ -4048,22 +4048,22 @@
         <v>1</v>
       </c>
       <c r="E28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>1</v>
@@ -4078,13 +4078,13 @@
         <v>1</v>
       </c>
       <c r="O28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P28" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R28" s="2" t="n">
         <v>0</v>
@@ -4096,16 +4096,16 @@
         <v>0</v>
       </c>
       <c r="U28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y28" s="2" t="n">
         <v>0</v>
@@ -4117,13 +4117,13 @@
         <v>1</v>
       </c>
       <c r="AB28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC28" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE28" s="2" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>1</v>
       </c>
       <c r="AL28" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM28" s="2" t="inlineStr">
         <is>
@@ -4169,28 +4169,28 @@
       <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
         <v>1</v>
@@ -4205,13 +4205,13 @@
         <v>1</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -4223,19 +4223,19 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z29" t="n">
         <v>1</v>
@@ -4244,13 +4244,13 @@
         <v>1</v>
       </c>
       <c r="AB29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE29" t="n">
         <v>0</v>
@@ -4274,7 +4274,7 @@
         <v>1</v>
       </c>
       <c r="AL29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM29" t="inlineStr">
         <is>
@@ -4308,22 +4308,22 @@
         <v>1</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>1</v>
@@ -4335,16 +4335,16 @@
         <v>0</v>
       </c>
       <c r="N30" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P30" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R30" s="2" t="n">
         <v>0</v>
@@ -4356,16 +4356,16 @@
         <v>0</v>
       </c>
       <c r="U30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X30" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y30" s="2" t="n">
         <v>0</v>
@@ -4377,13 +4377,13 @@
         <v>1</v>
       </c>
       <c r="AB30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC30" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE30" s="2" t="n">
         <v>0</v>
@@ -4407,7 +4407,7 @@
         <v>1</v>
       </c>
       <c r="AL30" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM30" s="2" t="inlineStr">
         <is>
@@ -4435,22 +4435,22 @@
         <v>1</v>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>1</v>
@@ -4462,16 +4462,16 @@
         <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -4483,19 +4483,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z31" t="n">
         <v>1</v>
@@ -4504,16 +4504,16 @@
         <v>1</v>
       </c>
       <c r="AB31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF31" t="n">
         <v>0</v>
@@ -4522,7 +4522,7 @@
         <v>0</v>
       </c>
       <c r="AH31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI31" t="n">
         <v>0</v>
@@ -4534,7 +4534,7 @@
         <v>1</v>
       </c>
       <c r="AL31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM31" t="inlineStr">
         <is>
@@ -4568,22 +4568,22 @@
         <v>1</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>1</v>
@@ -4595,16 +4595,16 @@
         <v>0</v>
       </c>
       <c r="N32" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R32" s="2" t="n">
         <v>0</v>
@@ -4616,16 +4616,16 @@
         <v>0</v>
       </c>
       <c r="U32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W32" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X32" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="2" t="n">
         <v>0</v>
@@ -4637,13 +4637,13 @@
         <v>1</v>
       </c>
       <c r="AB32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE32" s="2" t="n">
         <v>0</v>
@@ -4655,7 +4655,7 @@
         <v>0</v>
       </c>
       <c r="AH32" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI32" s="2" t="n">
         <v>0</v>
@@ -4667,7 +4667,7 @@
         <v>1</v>
       </c>
       <c r="AL32" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM32" s="2" t="inlineStr">
         <is>
@@ -4698,25 +4698,25 @@
         <v>0</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>1</v>
@@ -4728,16 +4728,16 @@
         <v>0</v>
       </c>
       <c r="N33" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R33" s="2" t="n">
         <v>0</v>
@@ -4749,16 +4749,16 @@
         <v>0</v>
       </c>
       <c r="U33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W33" s="2" t="n">
         <v>1</v>
       </c>
       <c r="X33" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="2" t="n">
         <v>0</v>
@@ -4770,13 +4770,13 @@
         <v>1</v>
       </c>
       <c r="AB33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2" t="n">
         <v>0</v>
@@ -4788,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="AH33" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI33" s="2" t="n">
         <v>0</v>
@@ -4800,7 +4800,7 @@
         <v>1</v>
       </c>
       <c r="AL33" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM33" s="2" t="inlineStr">
         <is>
@@ -4822,28 +4822,28 @@
       <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>1</v>
@@ -4855,16 +4855,16 @@
         <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -4876,16 +4876,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>1</v>
       </c>
       <c r="X34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -4897,19 +4897,19 @@
         <v>1</v>
       </c>
       <c r="AB34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE34" t="n">
         <v>0</v>
       </c>
       <c r="AF34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG34" t="n">
         <v>0</v>
@@ -4927,7 +4927,7 @@
         <v>1</v>
       </c>
       <c r="AL34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM34" t="inlineStr">
         <is>
@@ -4958,25 +4958,25 @@
         <v>0</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>1</v>
@@ -4988,16 +4988,16 @@
         <v>0</v>
       </c>
       <c r="N35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="2" t="n">
         <v>0</v>
@@ -5009,16 +5009,16 @@
         <v>0</v>
       </c>
       <c r="U35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W35" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X35" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2" t="n">
         <v>0</v>
@@ -5027,16 +5027,16 @@
         <v>1</v>
       </c>
       <c r="AA35" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE35" s="2" t="n">
         <v>0</v>
@@ -5048,7 +5048,7 @@
         <v>0</v>
       </c>
       <c r="AH35" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI35" s="2" t="n">
         <v>0</v>
@@ -5060,7 +5060,7 @@
         <v>1</v>
       </c>
       <c r="AL35" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM35" s="2" t="inlineStr">
         <is>
@@ -5085,25 +5085,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>1</v>
@@ -5115,16 +5115,16 @@
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -5136,31 +5136,31 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z36" t="n">
         <v>1</v>
       </c>
       <c r="AA36" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36" t="n">
         <v>1</v>
@@ -5187,7 +5187,7 @@
         <v>1</v>
       </c>
       <c r="AL36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM36" t="inlineStr">
         <is>
@@ -5218,25 +5218,25 @@
         <v>0</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>1</v>
@@ -5248,16 +5248,16 @@
         <v>0</v>
       </c>
       <c r="N37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R37" s="2" t="n">
         <v>0</v>
@@ -5269,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="U37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W37" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X37" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="2" t="n">
         <v>0</v>
@@ -5287,16 +5287,16 @@
         <v>1</v>
       </c>
       <c r="AA37" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE37" s="2" t="n">
         <v>0</v>
@@ -5308,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="AH37" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI37" s="2" t="n">
         <v>0</v>
@@ -5320,7 +5320,7 @@
         <v>2</v>
       </c>
       <c r="AL37" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM37" s="2" t="inlineStr">
         <is>
@@ -5345,46 +5345,46 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>1</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -5396,37 +5396,37 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z38" t="n">
         <v>1</v>
       </c>
       <c r="AA38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD38" t="n">
         <v>1</v>
       </c>
       <c r="AE38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -5435,7 +5435,7 @@
         <v>0</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI38" t="n">
         <v>0</v>
@@ -5447,7 +5447,7 @@
         <v>2</v>
       </c>
       <c r="AL38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM38" t="inlineStr">
         <is>
@@ -5478,25 +5478,25 @@
         <v>0</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>1</v>
@@ -5508,16 +5508,16 @@
         <v>0</v>
       </c>
       <c r="N39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R39" s="2" t="n">
         <v>0</v>
@@ -5529,16 +5529,16 @@
         <v>0</v>
       </c>
       <c r="U39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X39" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y39" s="2" t="n">
         <v>0</v>
@@ -5547,16 +5547,16 @@
         <v>1</v>
       </c>
       <c r="AA39" s="2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="2" t="n">
         <v>0</v>
@@ -5568,19 +5568,19 @@
         <v>0</v>
       </c>
       <c r="AH39" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI39" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ39" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK39" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL39" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM39" s="2" t="inlineStr">
         <is>
@@ -5605,46 +5605,46 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -5656,16 +5656,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -5674,19 +5674,19 @@
         <v>1</v>
       </c>
       <c r="AA40" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF40" t="n">
         <v>0</v>
@@ -5701,13 +5701,13 @@
         <v>0</v>
       </c>
       <c r="AJ40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK40" t="n">
         <v>2</v>
       </c>
       <c r="AL40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM40" t="inlineStr">
         <is>
@@ -5738,25 +5738,25 @@
         <v>0</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>1</v>
@@ -5771,13 +5771,13 @@
         <v>2</v>
       </c>
       <c r="O41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R41" s="2" t="n">
         <v>0</v>
@@ -5789,16 +5789,16 @@
         <v>0</v>
       </c>
       <c r="U41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X41" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y41" s="2" t="n">
         <v>0</v>
@@ -5810,13 +5810,13 @@
         <v>2</v>
       </c>
       <c r="AB41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="2" t="n">
         <v>0</v>
@@ -5828,19 +5828,19 @@
         <v>0</v>
       </c>
       <c r="AH41" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI41" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ41" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK41" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL41" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM41" s="2" t="inlineStr">
         <is>
@@ -5865,25 +5865,25 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>1</v>
@@ -5898,13 +5898,13 @@
         <v>2</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -5916,16 +5916,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -5937,16 +5937,16 @@
         <v>2</v>
       </c>
       <c r="AB42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF42" t="n">
         <v>0</v>
@@ -5961,13 +5961,13 @@
         <v>0</v>
       </c>
       <c r="AJ42" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK42" t="n">
         <v>2</v>
       </c>
       <c r="AL42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM42" t="inlineStr">
         <is>
@@ -5998,25 +5998,25 @@
         <v>0</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>1</v>
@@ -6028,16 +6028,16 @@
         <v>0</v>
       </c>
       <c r="N43" s="2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R43" s="2" t="n">
         <v>0</v>
@@ -6049,16 +6049,16 @@
         <v>0</v>
       </c>
       <c r="U43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X43" s="2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y43" s="2" t="n">
         <v>0</v>
@@ -6070,13 +6070,13 @@
         <v>2</v>
       </c>
       <c r="AB43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE43" s="2" t="n">
         <v>0</v>
@@ -6088,19 +6088,19 @@
         <v>0</v>
       </c>
       <c r="AH43" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ43" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK43" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL43" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM43" s="2" t="inlineStr">
         <is>
@@ -6125,25 +6125,25 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>1</v>
@@ -6152,19 +6152,19 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -6176,16 +6176,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X44" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -6197,13 +6197,13 @@
         <v>2</v>
       </c>
       <c r="AB44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE44" t="n">
         <v>1</v>
@@ -6215,19 +6215,19 @@
         <v>0</v>
       </c>
       <c r="AH44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI44" t="n">
         <v>0</v>
       </c>
       <c r="AJ44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK44" t="n">
         <v>2</v>
       </c>
       <c r="AL44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM44" t="inlineStr">
         <is>
@@ -6258,25 +6258,25 @@
         <v>0</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J45" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>1</v>
@@ -6291,13 +6291,13 @@
         <v>3</v>
       </c>
       <c r="O45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R45" s="2" t="n">
         <v>0</v>
@@ -6309,34 +6309,34 @@
         <v>0</v>
       </c>
       <c r="U45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="Y45" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE45" s="2" t="n">
         <v>0</v>
@@ -6348,19 +6348,19 @@
         <v>0</v>
       </c>
       <c r="AH45" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI45" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ45" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK45" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL45" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM45" s="2" t="inlineStr">
         <is>
@@ -6385,25 +6385,25 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E46" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
         <v>1</v>
@@ -6418,13 +6418,13 @@
         <v>3</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P46" t="n">
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -6436,37 +6436,37 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA46" t="n">
         <v>3</v>
       </c>
-      <c r="Y46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z46" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA46" t="n">
-        <v>2</v>
-      </c>
       <c r="AB46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF46" t="n">
         <v>0</v>
@@ -6481,13 +6481,13 @@
         <v>0</v>
       </c>
       <c r="AJ46" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK46" t="n">
         <v>2</v>
       </c>
       <c r="AL46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM46" t="inlineStr">
         <is>
@@ -6518,25 +6518,25 @@
         <v>0</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J47" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>1</v>
@@ -6548,55 +6548,55 @@
         <v>0</v>
       </c>
       <c r="N47" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="O47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X47" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y47" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z47" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA47" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE47" s="2" t="n">
         <v>0</v>
@@ -6608,19 +6608,19 @@
         <v>0</v>
       </c>
       <c r="AH47" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI47" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ47" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK47" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL47" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM47" s="2" t="inlineStr">
         <is>
@@ -6645,88 +6645,88 @@
         <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
         <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>1</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M48" t="n">
         <v>0</v>
       </c>
       <c r="N48" t="n">
+        <v>4</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1</v>
+      </c>
+      <c r="P48" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1</v>
+      </c>
+      <c r="R48" t="n">
+        <v>0</v>
+      </c>
+      <c r="S48" t="n">
+        <v>0</v>
+      </c>
+      <c r="T48" t="n">
+        <v>0</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>2</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA48" t="n">
         <v>3</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>0</v>
-      </c>
-      <c r="R48" t="n">
-        <v>0</v>
-      </c>
-      <c r="S48" t="n">
-        <v>0</v>
-      </c>
-      <c r="T48" t="n">
-        <v>0</v>
-      </c>
-      <c r="U48" t="n">
-        <v>0</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1</v>
-      </c>
-      <c r="W48" t="n">
-        <v>1</v>
-      </c>
-      <c r="X48" t="n">
-        <v>4</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>2</v>
-      </c>
       <c r="AB48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48" t="n">
         <v>1</v>
       </c>
       <c r="AE48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF48" t="n">
         <v>0</v>
@@ -6735,19 +6735,19 @@
         <v>0</v>
       </c>
       <c r="AH48" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI48" t="n">
         <v>0</v>
       </c>
       <c r="AJ48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK48" t="n">
         <v>2</v>
       </c>
       <c r="AL48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM48" t="inlineStr">
         <is>
@@ -6778,25 +6778,25 @@
         <v>0</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J49" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>1</v>
@@ -6811,13 +6811,13 @@
         <v>4</v>
       </c>
       <c r="O49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R49" s="2" t="n">
         <v>0</v>
@@ -6829,34 +6829,34 @@
         <v>0</v>
       </c>
       <c r="U49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA49" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="Y49" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA49" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE49" s="2" t="n">
         <v>0</v>
@@ -6868,19 +6868,19 @@
         <v>0</v>
       </c>
       <c r="AH49" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI49" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ49" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK49" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL49" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM49" s="2" t="inlineStr">
         <is>
@@ -6905,25 +6905,25 @@
         <v>0</v>
       </c>
       <c r="D50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
         <v>0</v>
       </c>
       <c r="G50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K50" t="n">
         <v>1</v>
@@ -6938,13 +6938,13 @@
         <v>4</v>
       </c>
       <c r="O50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P50" t="n">
         <v>0</v>
       </c>
       <c r="Q50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R50" t="n">
         <v>0</v>
@@ -6956,37 +6956,37 @@
         <v>0</v>
       </c>
       <c r="U50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA50" t="n">
         <v>4</v>
       </c>
-      <c r="Y50" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>2</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>2</v>
-      </c>
       <c r="AB50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF50" t="n">
         <v>0</v>
@@ -7001,13 +7001,13 @@
         <v>0</v>
       </c>
       <c r="AJ50" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK50" t="n">
         <v>2</v>
       </c>
       <c r="AL50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM50" t="inlineStr">
         <is>
@@ -7038,25 +7038,25 @@
         <v>0</v>
       </c>
       <c r="D51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J51" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>1</v>
@@ -7068,55 +7068,55 @@
         <v>0</v>
       </c>
       <c r="N51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA51" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="O51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X51" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y51" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z51" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA51" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE51" s="2" t="n">
         <v>0</v>
@@ -7128,19 +7128,19 @@
         <v>0</v>
       </c>
       <c r="AH51" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI51" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ51" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK51" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL51" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM51" s="2" t="inlineStr">
         <is>
@@ -7165,25 +7165,25 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F52" t="n">
         <v>0</v>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K52" t="n">
         <v>1</v>
@@ -7195,58 +7195,58 @@
         <v>0</v>
       </c>
       <c r="N52" t="n">
+        <v>5</v>
+      </c>
+      <c r="O52" t="n">
+        <v>1</v>
+      </c>
+      <c r="P52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1</v>
+      </c>
+      <c r="R52" t="n">
+        <v>1</v>
+      </c>
+      <c r="S52" t="n">
+        <v>0</v>
+      </c>
+      <c r="T52" t="n">
+        <v>0</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="n">
+        <v>2</v>
+      </c>
+      <c r="X52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA52" t="n">
         <v>4</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>0</v>
-      </c>
-      <c r="R52" t="n">
-        <v>0</v>
-      </c>
-      <c r="S52" t="n">
-        <v>1</v>
-      </c>
-      <c r="T52" t="n">
-        <v>0</v>
-      </c>
-      <c r="U52" t="n">
-        <v>0</v>
-      </c>
-      <c r="V52" t="n">
-        <v>1</v>
-      </c>
-      <c r="W52" t="n">
-        <v>2</v>
-      </c>
-      <c r="X52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Y52" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z52" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA52" t="n">
-        <v>2</v>
-      </c>
       <c r="AB52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF52" t="n">
         <v>0</v>
@@ -7255,19 +7255,19 @@
         <v>0</v>
       </c>
       <c r="AH52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI52" t="n">
         <v>0</v>
       </c>
       <c r="AJ52" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK52" t="n">
         <v>2</v>
       </c>
       <c r="AL52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM52" t="inlineStr">
         <is>
@@ -7298,25 +7298,25 @@
         <v>0</v>
       </c>
       <c r="D53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K53" s="2" t="n">
         <v>1</v>
@@ -7331,13 +7331,13 @@
         <v>5</v>
       </c>
       <c r="O53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R53" s="2" t="n">
         <v>0</v>
@@ -7349,34 +7349,34 @@
         <v>0</v>
       </c>
       <c r="U53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA53" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="Y53" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z53" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA53" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE53" s="2" t="n">
         <v>0</v>
@@ -7388,19 +7388,19 @@
         <v>0</v>
       </c>
       <c r="AH53" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI53" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ53" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK53" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL53" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM53" s="2" t="inlineStr">
         <is>
@@ -7425,25 +7425,25 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F54" t="n">
         <v>0</v>
       </c>
       <c r="G54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K54" t="n">
         <v>1</v>
@@ -7458,13 +7458,13 @@
         <v>5</v>
       </c>
       <c r="O54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P54" t="n">
         <v>0</v>
       </c>
       <c r="Q54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R54" t="n">
         <v>0</v>
@@ -7476,34 +7476,34 @@
         <v>0</v>
       </c>
       <c r="U54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W54" t="n">
         <v>2</v>
       </c>
       <c r="X54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA54" t="n">
         <v>5</v>
       </c>
-      <c r="Y54" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z54" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA54" t="n">
-        <v>2</v>
-      </c>
       <c r="AB54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE54" t="n">
         <v>0</v>
@@ -7515,19 +7515,19 @@
         <v>0</v>
       </c>
       <c r="AH54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI54" t="n">
         <v>0</v>
       </c>
       <c r="AJ54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK54" t="n">
         <v>2</v>
       </c>
       <c r="AL54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM54" t="inlineStr">
         <is>
@@ -7558,25 +7558,25 @@
         <v>0</v>
       </c>
       <c r="D55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K55" s="2" t="n">
         <v>1</v>
@@ -7588,55 +7588,55 @@
         <v>0</v>
       </c>
       <c r="N55" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="O55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA55" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="O55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X55" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y55" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z55" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA55" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE55" s="2" t="n">
         <v>0</v>
@@ -7648,19 +7648,19 @@
         <v>0</v>
       </c>
       <c r="AH55" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI55" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ55" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK55" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL55" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM55" s="2" t="inlineStr">
         <is>
@@ -7685,25 +7685,25 @@
         <v>0</v>
       </c>
       <c r="D56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F56" t="n">
         <v>0</v>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K56" t="n">
         <v>1</v>
@@ -7715,55 +7715,55 @@
         <v>0</v>
       </c>
       <c r="N56" t="n">
+        <v>6</v>
+      </c>
+      <c r="O56" t="n">
+        <v>1</v>
+      </c>
+      <c r="P56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1</v>
+      </c>
+      <c r="R56" t="n">
+        <v>0</v>
+      </c>
+      <c r="S56" t="n">
+        <v>0</v>
+      </c>
+      <c r="T56" t="n">
+        <v>0</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="n">
+        <v>2</v>
+      </c>
+      <c r="X56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA56" t="n">
         <v>5</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>0</v>
-      </c>
-      <c r="R56" t="n">
-        <v>0</v>
-      </c>
-      <c r="S56" t="n">
-        <v>0</v>
-      </c>
-      <c r="T56" t="n">
-        <v>0</v>
-      </c>
-      <c r="U56" t="n">
-        <v>0</v>
-      </c>
-      <c r="V56" t="n">
-        <v>1</v>
-      </c>
-      <c r="W56" t="n">
-        <v>2</v>
-      </c>
-      <c r="X56" t="n">
-        <v>6</v>
-      </c>
-      <c r="Y56" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z56" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA56" t="n">
-        <v>2</v>
-      </c>
       <c r="AB56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC56" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE56" t="n">
         <v>0</v>
@@ -7775,19 +7775,19 @@
         <v>0</v>
       </c>
       <c r="AH56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI56" t="n">
         <v>0</v>
       </c>
       <c r="AJ56" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK56" t="n">
         <v>2</v>
       </c>
       <c r="AL56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM56" t="inlineStr">
         <is>
@@ -7818,25 +7818,25 @@
         <v>0</v>
       </c>
       <c r="D57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J57" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K57" s="2" t="n">
         <v>1</v>
@@ -7851,13 +7851,13 @@
         <v>6</v>
       </c>
       <c r="O57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57" s="2" t="n">
         <v>0</v>
@@ -7869,34 +7869,34 @@
         <v>0</v>
       </c>
       <c r="U57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA57" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="Y57" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA57" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE57" s="2" t="n">
         <v>0</v>
@@ -7908,19 +7908,19 @@
         <v>0</v>
       </c>
       <c r="AH57" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI57" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ57" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK57" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL57" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM57" s="2" t="inlineStr">
         <is>
@@ -7951,25 +7951,25 @@
         <v>0</v>
       </c>
       <c r="D58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J58" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K58" s="2" t="n">
         <v>1</v>
@@ -7981,55 +7981,55 @@
         <v>0</v>
       </c>
       <c r="N58" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="O58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA58" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="O58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X58" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Y58" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z58" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA58" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE58" s="2" t="n">
         <v>0</v>
@@ -8041,19 +8041,19 @@
         <v>0</v>
       </c>
       <c r="AH58" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI58" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ58" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK58" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL58" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM58" s="2" t="inlineStr">
         <is>
@@ -8084,25 +8084,25 @@
         <v>0</v>
       </c>
       <c r="D59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J59" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K59" s="2" t="n">
         <v>1</v>
@@ -8117,13 +8117,13 @@
         <v>7</v>
       </c>
       <c r="O59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R59" s="2" t="n">
         <v>0</v>
@@ -8135,34 +8135,34 @@
         <v>0</v>
       </c>
       <c r="U59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA59" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="Y59" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z59" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA59" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE59" s="2" t="n">
         <v>0</v>
@@ -8174,19 +8174,19 @@
         <v>0</v>
       </c>
       <c r="AH59" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI59" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ59" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK59" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL59" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM59" s="2" t="inlineStr">
         <is>
@@ -8217,25 +8217,25 @@
         <v>0</v>
       </c>
       <c r="D60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J60" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60" s="2" t="n">
         <v>1</v>
@@ -8247,55 +8247,55 @@
         <v>0</v>
       </c>
       <c r="N60" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="O60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA60" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="O60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X60" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="Y60" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z60" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA60" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE60" s="2" t="n">
         <v>0</v>
@@ -8307,19 +8307,19 @@
         <v>0</v>
       </c>
       <c r="AH60" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI60" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ60" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK60" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL60" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM60" s="2" t="inlineStr">
         <is>
@@ -8350,25 +8350,25 @@
         <v>0</v>
       </c>
       <c r="D61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K61" s="2" t="n">
         <v>1</v>
@@ -8383,13 +8383,13 @@
         <v>8</v>
       </c>
       <c r="O61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R61" s="2" t="n">
         <v>0</v>
@@ -8401,34 +8401,34 @@
         <v>0</v>
       </c>
       <c r="U61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="Y61" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z61" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA61" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE61" s="2" t="n">
         <v>0</v>
@@ -8440,19 +8440,19 @@
         <v>0</v>
       </c>
       <c r="AH61" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI61" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ61" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK61" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL61" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM61" s="2" t="inlineStr">
         <is>
@@ -8483,25 +8483,25 @@
         <v>0</v>
       </c>
       <c r="D62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J62" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K62" s="2" t="n">
         <v>1</v>
@@ -8513,55 +8513,55 @@
         <v>0</v>
       </c>
       <c r="N62" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="O62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA62" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="O62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X62" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="Y62" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z62" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA62" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE62" s="2" t="n">
         <v>0</v>
@@ -8573,19 +8573,19 @@
         <v>0</v>
       </c>
       <c r="AH62" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI62" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ62" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK62" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL62" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM62" s="2" t="inlineStr">
         <is>
@@ -8616,25 +8616,25 @@
         <v>0</v>
       </c>
       <c r="D63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J63" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K63" s="2" t="n">
         <v>1</v>
@@ -8649,13 +8649,13 @@
         <v>9</v>
       </c>
       <c r="O63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R63" s="2" t="n">
         <v>0</v>
@@ -8667,34 +8667,34 @@
         <v>0</v>
       </c>
       <c r="U63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA63" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="Y63" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z63" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA63" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE63" s="2" t="n">
         <v>0</v>
@@ -8706,19 +8706,19 @@
         <v>0</v>
       </c>
       <c r="AH63" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI63" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ63" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK63" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL63" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM63" s="2" t="inlineStr">
         <is>
@@ -8743,25 +8743,25 @@
         <v>0</v>
       </c>
       <c r="D64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F64" t="n">
         <v>0</v>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K64" t="n">
         <v>1</v>
@@ -8776,13 +8776,13 @@
         <v>9</v>
       </c>
       <c r="O64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P64" t="n">
         <v>0</v>
       </c>
       <c r="Q64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
         <v>0</v>
@@ -8794,58 +8794,58 @@
         <v>0</v>
       </c>
       <c r="U64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA64" t="n">
         <v>9</v>
       </c>
-      <c r="Y64" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z64" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA64" t="n">
-        <v>2</v>
-      </c>
       <c r="AB64" t="n">
         <v>1</v>
       </c>
       <c r="AC64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE64" t="n">
         <v>0</v>
       </c>
       <c r="AF64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG64" t="n">
         <v>0</v>
       </c>
       <c r="AH64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI64" t="n">
         <v>0</v>
       </c>
       <c r="AJ64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK64" t="n">
         <v>2</v>
       </c>
       <c r="AL64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM64" t="inlineStr">
         <is>
@@ -8876,25 +8876,25 @@
         <v>0</v>
       </c>
       <c r="D65" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J65" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K65" s="2" t="n">
         <v>1</v>
@@ -8906,55 +8906,55 @@
         <v>0</v>
       </c>
       <c r="N65" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="O65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA65" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="O65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X65" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Y65" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z65" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA65" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE65" s="2" t="n">
         <v>0</v>
@@ -8966,19 +8966,19 @@
         <v>0</v>
       </c>
       <c r="AH65" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI65" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ65" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK65" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL65" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="2" t="inlineStr">
         <is>
@@ -9009,25 +9009,25 @@
         <v>0</v>
       </c>
       <c r="D66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J66" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K66" s="2" t="n">
         <v>1</v>
@@ -9042,13 +9042,13 @@
         <v>10</v>
       </c>
       <c r="O66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R66" s="2" t="n">
         <v>0</v>
@@ -9060,34 +9060,34 @@
         <v>0</v>
       </c>
       <c r="U66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA66" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="Y66" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z66" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA66" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE66" s="2" t="n">
         <v>0</v>
@@ -9099,19 +9099,19 @@
         <v>0</v>
       </c>
       <c r="AH66" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI66" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ66" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK66" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL66" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM66" s="2" t="inlineStr">
         <is>
@@ -9142,25 +9142,25 @@
         <v>0</v>
       </c>
       <c r="D67" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J67" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K67" s="2" t="n">
         <v>1</v>
@@ -9172,55 +9172,55 @@
         <v>0</v>
       </c>
       <c r="N67" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="O67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X67" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y67" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z67" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA67" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE67" s="2" t="n">
         <v>0</v>
@@ -9232,19 +9232,19 @@
         <v>0</v>
       </c>
       <c r="AH67" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI67" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ67" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK67" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL67" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM67" s="2" t="inlineStr">
         <is>
@@ -9275,25 +9275,25 @@
         <v>0</v>
       </c>
       <c r="D68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J68" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K68" s="2" t="n">
         <v>1</v>
@@ -9305,79 +9305,79 @@
         <v>0</v>
       </c>
       <c r="N68" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA68" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="O68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="X68" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y68" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z68" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA68" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH68" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI68" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ68" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK68" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL68" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM68" s="2" t="inlineStr">
         <is>
@@ -9408,25 +9408,25 @@
         <v>0</v>
       </c>
       <c r="D69" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E69" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K69" s="2" t="n">
         <v>1</v>
@@ -9438,79 +9438,79 @@
         <v>0</v>
       </c>
       <c r="N69" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="O69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="P69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="S69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="U69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="V69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="X69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z69" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA69" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="O69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="R69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="S69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="T69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="U69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="V69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="W69" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X69" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Y69" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z69" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA69" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF69" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH69" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI69" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ69" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK69" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL69" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM69" s="2" t="inlineStr">
         <is>
@@ -9541,25 +9541,25 @@
         <v>0</v>
       </c>
       <c r="D70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="G70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="I70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70" s="2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K70" s="2" t="n">
         <v>1</v>
@@ -9574,13 +9574,13 @@
         <v>11</v>
       </c>
       <c r="O70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="Q70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R70" s="2" t="n">
         <v>0</v>
@@ -9592,58 +9592,58 @@
         <v>0</v>
       </c>
       <c r="U70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="X70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z70" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="Y70" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z70" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="AA70" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="AB70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF70" s="2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AH70" s="2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AI70" s="2" t="n">
         <v>0</v>
       </c>
       <c r="AJ70" s="2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AK70" s="2" t="n">
         <v>2</v>
       </c>
       <c r="AL70" s="2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AM70" s="2" t="inlineStr">
         <is>
